--- a/outputs-r202/f__Clostridiaceae.xlsx
+++ b/outputs-r202/f__Clostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +834,11 @@
         <v>0.9995485983402399</v>
       </c>
       <c r="AW2" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>g__Clostridium</t>
         </is>

--- a/outputs-r202/f__Clostridiaceae.xlsx
+++ b/outputs-r202/f__Clostridiaceae.xlsx
@@ -693,145 +693,145 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.62695734744651e-06</v>
+        <v>3.0781699541161e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995485983402399</v>
+        <v>0.9837164492212984</v>
       </c>
       <c r="D2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001928177982727199</v>
+        <v>2.538023533427716e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>7.283090716357859e-11</v>
+        <v>8.078633466135079e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.217988661618405e-09</v>
+        <v>5.121673582669766e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000199654323108937</v>
+        <v>0.000767776130282309</v>
       </c>
       <c r="O2" t="n">
-        <v>1.750651432537589e-06</v>
+        <v>6.380720544183953e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>6.081039918608241e-11</v>
+        <v>4.377774040557969e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.229643579536707e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.312814694090302e-11</v>
+        <v>8.84748025642224e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>9.80060973863207e-11</v>
+        <v>1.452868983201716e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>7.189202405766138e-12</v>
+        <v>4.065323533525937e-11</v>
       </c>
       <c r="U2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>6.792142441313495e-09</v>
+        <v>1.244883261440437e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>7.569948415677849e-06</v>
+        <v>5.182407756228244e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>8.343188585913574e-09</v>
+        <v>4.711419326433661e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.576748998340454e-05</v>
+        <v>7.86818095566493e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.447348202241008e-09</v>
+        <v>1.573447849336125e-09</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>0.01546215258987746</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.019043791971941e-05</v>
+        <v>1.14509268873583e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.229643579536708e-14</v>
+        <v>2.220242179933163e-14</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9995485983402399</v>
+        <v>0.9837164492212984</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
